--- a/medicine/Enfance/Oana_Mujea/Oana_Mujea.xlsx
+++ b/medicine/Enfance/Oana_Mujea/Oana_Mujea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oana Mujea, née le 20 mai 1981 à Ștefănești, est une journaliste et femme de lettres roumaine, scénariste et auteure de romans policiers, thrillers et fantasy.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née le 20 mai 1981 à Ștefănești, Oana Mujea suit toute sa scolarité à Pitești où elle décroche un baccalauréat options mathématiques-physique en 2000[1]. Elle intègre ensuite la faculté d’électronique et d’électrotechnique de Piteşti, avant de se tourner vers le journalisme à partir de 2005. Cette même année, elle entame sa carrière d'écrivain et publie son premier roman de fantasy intitulé Stăpânul: Răpirea Zeilor[2]. À la suite de sa rencontre avec George Arion en 2008, elle se lance dans l’écriture de polars avec le roman Indicii anatomice[3]. Ce premier polar rencontra dès sa sortie un excellent accueil et son tirage fut épuisé en trois mois[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née le 20 mai 1981 à Ștefănești, Oana Mujea suit toute sa scolarité à Pitești où elle décroche un baccalauréat options mathématiques-physique en 2000. Elle intègre ensuite la faculté d’électronique et d’électrotechnique de Piteşti, avant de se tourner vers le journalisme à partir de 2005. Cette même année, elle entame sa carrière d'écrivain et publie son premier roman de fantasy intitulé Stăpânul: Răpirea Zeilor. À la suite de sa rencontre avec George Arion en 2008, elle se lance dans l’écriture de polars avec le roman Indicii anatomice. Ce premier polar rencontra dès sa sortie un excellent accueil et son tirage fut épuisé en trois mois.
 Elle est aujourd’hui l’auteure de plus d'une dizaine de romans, dont un appartenant à la littérature d'enfance et de jeunesse, et de nombreuses nouvelles.
-En 2011, son roman policier Indicii anatomice[5] a été traduit en anglais et publié aux éditions Profusion de Londres, sous le titre Anatomical clues[6]. 
-En 2015, ce même roman apparaît dans la revue littéraire Dacia literară, parmi les romans policiers roumains de référence publiés au cours des vingt-cinq dernières années[7].
+En 2011, son roman policier Indicii anatomice a été traduit en anglais et publié aux éditions Profusion de Londres, sous le titre Anatomical clues. 
+En 2015, ce même roman apparaît dans la revue littéraire Dacia literară, parmi les romans policiers roumains de référence publiés au cours des vingt-cinq dernières années.
 </t>
         </is>
       </c>
@@ -547,29 +561,102 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers et thrillers
-2008 : Indicii anatomice, éditions Crime Scene Publishing
+          <t>Romans policiers et thrillers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2008 : Indicii anatomice, éditions Crime Scene Publishing
 2010 : Parfumul Văduvei Negre, éditions Crime Scene Publishing
 2010 : Crime perfecte. Dincolo de oglindă, éditions Tritonic
 2011 : Sărutul Morţii, éditions Tritonic
-2011 : Bunny detectiv (livre pour enfants), éditions Caii Verzi[8]
+2011 : Bunny detectiv (livre pour enfants), éditions Caii Verzi
 2012 : Greșelile trecutului, éditions Crime Scene Publishing
-2015 : Jucătorul, éditions Crime Scene Press
-Romans de fantasy
-2005 : Trilogia Stăpânul: Răpirea Zeilor, éditions NapocaStar, Cluj-Napoca
+2015 : Jucătorul, éditions Crime Scene Press</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Oana_Mujea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oana_Mujea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans de fantasy</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2005 : Trilogia Stăpânul: Răpirea Zeilor, éditions NapocaStar, Cluj-Napoca
 2005 : Șarama, éditions Mihai Eminescu
 2007 : Colecționarul de vise, éditions InfoData, Cluj-Napoca
 2008 : Războiul Reginelor (vol. I, série des Dynasties), éditions Tritonic
 2008 : Războiul Reginelor (vol. II, série des Dynasties), éditions Tritonic
-2009 : Regina elfă (vol. III, série des Dynasties), éditions Tritonic[9]
-2010 : Regina arkudă și amuletele puterii (vol. IV, série des Dynasties), éditions Tritonic
-Nouvelles
-Cacealmaua, publiée le 9 octobre 2013, avec le quotidien Evenimentul Zilei[10]
-Alibiul perfect, publiée le 23 octobre 2013, avec le quotidien Evenimentul Zilei[11]
-Labirintul mortii, publiée le 6 novembre 2013, avec le quotidien Evenimentul Zilei[12]
-Crima in direct, publiée le 20 novembre 2013, avec le quotidien Evenimentul Zilei[13]
-Lista neagra, publiée le 4 décembre 2013, avec le quotidien Evenimentul Zilei[14]
-Jurnalul unui asasin, publiée le 17 décembre 2013, avec le quotidien Evenimentul Zilei[15]</t>
+2009 : Regina elfă (vol. III, série des Dynasties), éditions Tritonic
+2010 : Regina arkudă și amuletele puterii (vol. IV, série des Dynasties), éditions Tritonic</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oana_Mujea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oana_Mujea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cacealmaua, publiée le 9 octobre 2013, avec le quotidien Evenimentul Zilei
+Alibiul perfect, publiée le 23 octobre 2013, avec le quotidien Evenimentul Zilei
+Labirintul mortii, publiée le 6 novembre 2013, avec le quotidien Evenimentul Zilei
+Crima in direct, publiée le 20 novembre 2013, avec le quotidien Evenimentul Zilei
+Lista neagra, publiée le 4 décembre 2013, avec le quotidien Evenimentul Zilei
+Jurnalul unui asasin, publiée le 17 décembre 2013, avec le quotidien Evenimentul Zilei</t>
         </is>
       </c>
     </row>
